--- a/Compiler/Applications/SymbolDatabaseCliApp/_Migration/command.xlsx
+++ b/Compiler/Applications/SymbolDatabaseCliApp/_Migration/command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/Develop/OSS/KSPCompiler/Compiler/Applications/SymbolDatabaseCliApp/_Migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC34452F-B519-084E-9FFC-97B3C1BD178C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E84B015-1289-504C-9F57-53AC04D33235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67200" yWindow="-25400" windowWidth="67200" windowHeight="37300" xr2:uid="{F9A05BC1-1EEB-304A-A333-D95C28C9BCF1}"/>
   </bookViews>
